--- a/whk/whklatex/chemistry/caliometry/data.xlsx
+++ b/whk/whklatex/chemistry/caliometry/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\whk\whklatex\chemistry\caliometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13C9F8E-1ED9-4922-B6E4-F9E5C6D912E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60884794-D856-404F-A8EF-42B4C6CAD7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="17280" windowHeight="10043" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Time(min.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,245 +348,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0.75</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C1">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="F1">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G1">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="H1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1">
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
       <c r="J1">
-        <v>4</v>
-      </c>
-      <c r="K1">
-        <v>4.5</v>
-      </c>
-      <c r="L1">
-        <v>5</v>
-      </c>
-      <c r="M1">
-        <v>5.5</v>
-      </c>
-      <c r="N1">
-        <v>6</v>
-      </c>
-      <c r="O1">
-        <v>6.5</v>
-      </c>
-      <c r="P1">
-        <v>7</v>
-      </c>
-      <c r="Q1">
         <v>7.5</v>
       </c>
-      <c r="R1">
-        <v>8</v>
-      </c>
-      <c r="S1">
-        <v>8.5</v>
-      </c>
-      <c r="T1">
-        <v>9</v>
-      </c>
-      <c r="U1">
-        <v>9.5</v>
-      </c>
-      <c r="V1">
-        <v>10</v>
-      </c>
-      <c r="W1">
-        <v>10.5</v>
-      </c>
-      <c r="X1">
-        <v>11</v>
-      </c>
-      <c r="Y1">
-        <v>11.5</v>
-      </c>
-      <c r="Z1">
-        <v>12</v>
-      </c>
-      <c r="AA1">
-        <v>12.5</v>
-      </c>
-      <c r="AB1">
-        <v>13</v>
-      </c>
-      <c r="AC1">
-        <v>13.5</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>18.5</v>
+      </c>
+      <c r="B2">
+        <v>18.5</v>
+      </c>
+      <c r="C2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F2">
+        <v>18.8</v>
+      </c>
+      <c r="G2">
+        <v>19.100000000000001</v>
+      </c>
       <c r="H2">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="I2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J2">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>18.5</v>
+      </c>
+      <c r="B3">
+        <v>18.5</v>
+      </c>
+      <c r="C3">
         <v>18.399999999999999</v>
       </c>
-      <c r="J2">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="L2">
-        <v>18</v>
-      </c>
-      <c r="M2">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="N2">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="O2">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="P2">
-        <v>17.8</v>
-      </c>
-      <c r="Q2">
-        <v>17.899999999999999</v>
+      <c r="E3">
+        <v>18.5</v>
+      </c>
+      <c r="F3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G3">
+        <v>19.2</v>
+      </c>
+      <c r="H3">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I3">
+        <v>18.8</v>
+      </c>
+      <c r="J3">
+        <v>18.5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="H3">
-        <v>18.5</v>
-      </c>
-      <c r="I3">
-        <v>18.5</v>
-      </c>
-      <c r="J3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>18.5</v>
+      </c>
+      <c r="B4">
+        <v>18.5</v>
+      </c>
+      <c r="C4">
         <v>18.399999999999999</v>
       </c>
-      <c r="K3">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="L3">
-        <v>18.5</v>
-      </c>
-      <c r="M3">
+      <c r="E4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F4">
         <v>18.8</v>
       </c>
-      <c r="N3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="O3">
+      <c r="G4">
+        <v>19.2</v>
+      </c>
+      <c r="H4">
         <v>19</v>
       </c>
-      <c r="P3">
-        <v>19.2</v>
-      </c>
-      <c r="Q3">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="C4">
-        <v>18.3</v>
-      </c>
-      <c r="D4">
-        <v>18.3</v>
-      </c>
-      <c r="E4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G4">
-        <v>18.3</v>
-      </c>
       <c r="I4">
-        <v>18.399999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="J4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="K4">
-        <v>18.5</v>
-      </c>
-      <c r="L4">
         <v>18.600000000000001</v>
-      </c>
-      <c r="M4">
-        <v>18.7</v>
-      </c>
-      <c r="N4">
-        <v>18.8</v>
-      </c>
-      <c r="O4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="P4">
-        <v>19</v>
-      </c>
-      <c r="Q4">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="R4">
-        <v>19.2</v>
-      </c>
-      <c r="S4">
-        <v>19.2</v>
-      </c>
-      <c r="T4">
-        <v>19.2</v>
-      </c>
-      <c r="U4">
-        <v>19.2</v>
-      </c>
-      <c r="V4">
-        <v>19.3</v>
-      </c>
-      <c r="W4">
-        <v>19.2</v>
-      </c>
-      <c r="X4">
-        <v>19.2</v>
-      </c>
-      <c r="Y4">
-        <v>19.2</v>
-      </c>
-      <c r="Z4">
-        <v>19.2</v>
-      </c>
-      <c r="AA4">
-        <v>19</v>
-      </c>
-      <c r="AB4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AC4">
-        <v>18.8</v>
       </c>
     </row>
   </sheetData>
